--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H2">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I2">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J2">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N2">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O2">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P2">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q2">
-        <v>3.599038175196445</v>
+        <v>1.51154827731</v>
       </c>
       <c r="R2">
-        <v>32.39134357676801</v>
+        <v>13.60393449579</v>
       </c>
       <c r="S2">
-        <v>0.2279326222653333</v>
+        <v>0.0374797848833346</v>
       </c>
       <c r="T2">
-        <v>0.2279326222653333</v>
+        <v>0.03747978488333458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580074666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H3">
-        <v>7.740224000000001</v>
+        <v>49.97019</v>
       </c>
       <c r="I3">
-        <v>0.3568173349568206</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J3">
-        <v>0.3568173349568206</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,42 +620,42 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N3">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P3">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q3">
-        <v>2.035079474652445</v>
+        <v>23.23506676703666</v>
       </c>
       <c r="R3">
-        <v>18.315715271872</v>
+        <v>209.11560090333</v>
       </c>
       <c r="S3">
-        <v>0.1288847126914873</v>
+        <v>0.5761280120858826</v>
       </c>
       <c r="T3">
-        <v>0.1288847126914873</v>
+        <v>0.5761280120858825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.785020666666667</v>
+        <v>16.65673</v>
       </c>
       <c r="H4">
-        <v>5.355062</v>
+        <v>49.97019</v>
       </c>
       <c r="I4">
-        <v>0.2468635211808523</v>
+        <v>0.83267636245756</v>
       </c>
       <c r="J4">
-        <v>0.2468635211808523</v>
+        <v>0.8326763624575599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N4">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O4">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P4">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q4">
-        <v>2.489988993670445</v>
+        <v>8.834968338463334</v>
       </c>
       <c r="R4">
-        <v>22.409900943034</v>
+        <v>79.51471504617</v>
       </c>
       <c r="S4">
-        <v>0.157694832094451</v>
+        <v>0.219068565488343</v>
       </c>
       <c r="T4">
-        <v>0.157694832094451</v>
+        <v>0.219068565488343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,72 +732,72 @@
         <v>5.355062</v>
       </c>
       <c r="I5">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J5">
-        <v>0.2468635211808523</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N5">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P5">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q5">
-        <v>1.407966586198445</v>
+        <v>0.161985270438</v>
       </c>
       <c r="R5">
-        <v>12.671699275786</v>
+        <v>1.457867433942</v>
       </c>
       <c r="S5">
-        <v>0.0891686890864013</v>
+        <v>0.004016526088792529</v>
       </c>
       <c r="T5">
-        <v>0.08916868908640131</v>
+        <v>0.004016526088792527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06561933333333334</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H6">
-        <v>0.196858</v>
+        <v>5.355062</v>
       </c>
       <c r="I6">
-        <v>0.009074975985828031</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J6">
-        <v>0.009074975985828031</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,60 +806,60 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P6">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q6">
-        <v>0.09153474848955556</v>
+        <v>2.489988993670444</v>
       </c>
       <c r="R6">
-        <v>0.8238127364060001</v>
+        <v>22.409900943034</v>
       </c>
       <c r="S6">
-        <v>0.005797036384723358</v>
+        <v>0.06174083437858954</v>
       </c>
       <c r="T6">
-        <v>0.005797036384723359</v>
+        <v>0.06174083437858952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06561933333333334</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H7">
-        <v>0.196858</v>
+        <v>5.355062</v>
       </c>
       <c r="I7">
-        <v>0.009074975985828031</v>
+        <v>0.08923387217248338</v>
       </c>
       <c r="J7">
-        <v>0.009074975985828031</v>
+        <v>0.08923387217248335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,122 +868,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7887676666666668</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N7">
-        <v>2.366303</v>
+        <v>1.591243</v>
       </c>
       <c r="O7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P7">
-        <v>0.361206421507195</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q7">
-        <v>0.05175840844155556</v>
+        <v>0.9468005468962223</v>
       </c>
       <c r="R7">
-        <v>0.465825675974</v>
+        <v>8.521204922066</v>
       </c>
       <c r="S7">
-        <v>0.003277939601104672</v>
+        <v>0.02347651170510133</v>
       </c>
       <c r="T7">
-        <v>0.003277939601104672</v>
+        <v>0.02347651170510132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.079636333333333</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H8">
-        <v>6.238909</v>
+        <v>0.043031</v>
       </c>
       <c r="I8">
-        <v>0.2876080695362463</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J8">
-        <v>0.2876080695362463</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.394935666666667</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N8">
-        <v>4.184807</v>
+        <v>0.272241</v>
       </c>
       <c r="O8">
-        <v>0.6387935784928049</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P8">
-        <v>0.638793578492805</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q8">
-        <v>2.900958895062556</v>
+        <v>0.001301644719</v>
       </c>
       <c r="R8">
-        <v>26.108630055563</v>
+        <v>0.011714802471</v>
       </c>
       <c r="S8">
-        <v>0.1837221879424663</v>
+        <v>3.22750948778616E-05</v>
       </c>
       <c r="T8">
-        <v>0.1837221879424663</v>
+        <v>3.227509487786159E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.079636333333333</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H9">
-        <v>6.238909</v>
+        <v>0.043031</v>
       </c>
       <c r="I9">
-        <v>0.2876080695362463</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J9">
-        <v>0.2876080695362463</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,42 +992,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7887676666666668</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N9">
-        <v>2.366303</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O9">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P9">
-        <v>0.361206421507195</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q9">
-        <v>1.640349898158556</v>
+        <v>0.02000849222411111</v>
       </c>
       <c r="R9">
-        <v>14.763149083427</v>
+        <v>0.180076430017</v>
       </c>
       <c r="S9">
-        <v>0.10388588159378</v>
+        <v>0.0004961230783406589</v>
       </c>
       <c r="T9">
-        <v>0.10388588159378</v>
+        <v>0.0004961230783406589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06028266666666667</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H10">
-        <v>0.180848</v>
+        <v>0.043031</v>
       </c>
       <c r="I10">
-        <v>0.008336929447038108</v>
+        <v>0.0007170454335457053</v>
       </c>
       <c r="J10">
-        <v>0.008336929447038108</v>
+        <v>0.0007170454335457052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,122 +1054,122 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.394935666666667</v>
+        <v>0.5304143333333333</v>
       </c>
       <c r="N10">
-        <v>4.184807</v>
+        <v>1.591243</v>
       </c>
       <c r="O10">
-        <v>0.6387935784928049</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="P10">
-        <v>0.638793578492805</v>
+        <v>0.263089689302317</v>
       </c>
       <c r="Q10">
-        <v>0.08409044181511112</v>
+        <v>0.007608086392555555</v>
       </c>
       <c r="R10">
-        <v>0.7568139763360001</v>
+        <v>0.068472777533</v>
       </c>
       <c r="S10">
-        <v>0.005325576995115515</v>
+        <v>0.0001886472603271848</v>
       </c>
       <c r="T10">
-        <v>0.005325576995115515</v>
+        <v>0.0001886472603271848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.483811333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.451434</v>
+      </c>
+      <c r="I11">
+        <v>0.07417630132764967</v>
+      </c>
+      <c r="J11">
+        <v>0.07417630132764966</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.06028266666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.180848</v>
-      </c>
-      <c r="I11">
-        <v>0.008336929447038108</v>
-      </c>
-      <c r="J11">
-        <v>0.008336929447038108</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0.7887676666666668</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N11">
-        <v>2.366303</v>
+        <v>0.272241</v>
       </c>
       <c r="O11">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837679</v>
       </c>
       <c r="P11">
-        <v>0.361206421507195</v>
+        <v>0.04501122713837678</v>
       </c>
       <c r="Q11">
-        <v>0.04754901832711112</v>
+        <v>0.134651427066</v>
       </c>
       <c r="R11">
-        <v>0.4279411649440001</v>
+        <v>1.211862843594</v>
       </c>
       <c r="S11">
-        <v>0.003011352451922592</v>
+        <v>0.003338766347343519</v>
       </c>
       <c r="T11">
-        <v>0.003011352451922593</v>
+        <v>0.003338766347343518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6601659999999999</v>
+        <v>1.483811333333333</v>
       </c>
       <c r="H12">
-        <v>1.980498</v>
+        <v>4.451434</v>
       </c>
       <c r="I12">
-        <v>0.09129916889321461</v>
+        <v>0.07417630132764967</v>
       </c>
       <c r="J12">
-        <v>0.09129916889321461</v>
+        <v>0.07417630132764966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1178,276 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.394935666666667</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N12">
-        <v>4.184807</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O12">
-        <v>0.6387935784928049</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="P12">
-        <v>0.638793578492805</v>
+        <v>0.6918990835593063</v>
       </c>
       <c r="Q12">
-        <v>0.9208890993206666</v>
+        <v>2.069821351470889</v>
       </c>
       <c r="R12">
-        <v>8.288001893885999</v>
+        <v>18.628392163238</v>
       </c>
       <c r="S12">
-        <v>0.05832132281071555</v>
+        <v>0.05132251491041976</v>
       </c>
       <c r="T12">
-        <v>0.05832132281071555</v>
+        <v>0.05132251491041975</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.483811333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.451434</v>
+      </c>
+      <c r="I13">
+        <v>0.07417630132764967</v>
+      </c>
+      <c r="J13">
+        <v>0.07417630132764966</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.591243</v>
+      </c>
+      <c r="O13">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P13">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q13">
+        <v>0.7870347991624445</v>
+      </c>
+      <c r="R13">
+        <v>7.083313192462</v>
+      </c>
+      <c r="S13">
+        <v>0.0195150200698864</v>
+      </c>
+      <c r="T13">
+        <v>0.01951502006988639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.6601659999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.980498</v>
-      </c>
-      <c r="I13">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="J13">
-        <v>0.09129916889321461</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7887676666666668</v>
-      </c>
-      <c r="N13">
-        <v>2.366303</v>
-      </c>
-      <c r="O13">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="P13">
-        <v>0.361206421507195</v>
-      </c>
-      <c r="Q13">
-        <v>0.5207175954326667</v>
-      </c>
-      <c r="R13">
-        <v>4.686458358894</v>
-      </c>
-      <c r="S13">
-        <v>0.03297784608249906</v>
-      </c>
-      <c r="T13">
-        <v>0.03297784608249906</v>
+      <c r="G14">
+        <v>0.06394066666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.191822</v>
+      </c>
+      <c r="I14">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="J14">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.272241</v>
+      </c>
+      <c r="O14">
+        <v>0.04501122713837679</v>
+      </c>
+      <c r="P14">
+        <v>0.04501122713837678</v>
+      </c>
+      <c r="Q14">
+        <v>0.005802423678</v>
+      </c>
+      <c r="R14">
+        <v>0.052221813102</v>
+      </c>
+      <c r="S14">
+        <v>0.0001438747240282858</v>
+      </c>
+      <c r="T14">
+        <v>0.0001438747240282858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06394066666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.191822</v>
+      </c>
+      <c r="I15">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="J15">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N15">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="P15">
+        <v>0.6918990835593063</v>
+      </c>
+      <c r="Q15">
+        <v>0.08919311648377774</v>
+      </c>
+      <c r="R15">
+        <v>0.8027380483539999</v>
+      </c>
+      <c r="S15">
+        <v>0.002211599106073805</v>
+      </c>
+      <c r="T15">
+        <v>0.002211599106073804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06394066666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.191822</v>
+      </c>
+      <c r="I16">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="J16">
+        <v>0.003196418608761225</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5304143333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.591243</v>
+      </c>
+      <c r="O16">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="P16">
+        <v>0.263089689302317</v>
+      </c>
+      <c r="Q16">
+        <v>0.03391504608288889</v>
+      </c>
+      <c r="R16">
+        <v>0.305235414746</v>
+      </c>
+      <c r="S16">
+        <v>0.000840944778659135</v>
+      </c>
+      <c r="T16">
+        <v>0.0008409447786591349</v>
       </c>
     </row>
   </sheetData>
